--- a/server/src/main/resources/inputs/t1.xlsx
+++ b/server/src/main/resources/inputs/t1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/repo/meeting-scheduler/server/src/main/resources/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDD2D1B-5DE0-8642-8987-3EE0E05F617B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7EB420-AAA8-BE46-9EB5-A07527BC068B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="16460" windowHeight="26440" activeTab="1" xr2:uid="{B79D25B7-5550-B540-A36A-E2C0BE443EC4}"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="16460" windowHeight="26440" xr2:uid="{B79D25B7-5550-B540-A36A-E2C0BE443EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -129,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -188,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -508,8 +508,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1376,6 +1376,12 @@
       <c r="A34" s="3">
         <v>0.33333333333333298</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>17</v>
       </c>
@@ -1387,6 +1393,12 @@
       <c r="A35" s="3">
         <v>0.34375</v>
       </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>17</v>
       </c>
@@ -1398,6 +1410,12 @@
       <c r="A36" s="3">
         <v>0.35416666666666702</v>
       </c>
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>17</v>
       </c>
@@ -1409,6 +1427,12 @@
       <c r="A37" s="3">
         <v>0.36458333333333298</v>
       </c>
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>17</v>
       </c>
@@ -1592,6 +1616,9 @@
       <c r="A46" s="3">
         <v>0.45833333333333298</v>
       </c>
+      <c r="B46" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1609,6 +1636,9 @@
       <c r="A47" s="3">
         <v>0.46875</v>
       </c>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
@@ -1626,6 +1656,9 @@
       <c r="A48" s="3">
         <v>0.47916666666666702</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
@@ -1643,6 +1676,9 @@
       <c r="A49" s="3">
         <v>0.48958333333333298</v>
       </c>
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>6</v>
       </c>
@@ -1669,6 +1705,9 @@
       <c r="D50" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E50" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>17</v>
       </c>
@@ -1689,6 +1728,9 @@
       <c r="D51" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G51" s="1" t="s">
         <v>17</v>
       </c>
@@ -1709,6 +1751,9 @@
       <c r="D52" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E52" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G52" s="1" t="s">
         <v>17</v>
       </c>
@@ -1729,6 +1774,9 @@
       <c r="D53" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E53" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G53" s="1" t="s">
         <v>17</v>
       </c>
@@ -1740,6 +1788,9 @@
       <c r="A54" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E54" s="1" t="s">
         <v>11</v>
       </c>
@@ -1754,6 +1805,9 @@
       <c r="A55" s="3">
         <v>0.55208333333333304</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E55" s="1" t="s">
         <v>11</v>
       </c>
@@ -1768,6 +1822,9 @@
       <c r="A56" s="3">
         <v>0.5625</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E56" s="1" t="s">
         <v>11</v>
       </c>
@@ -1782,6 +1839,9 @@
       <c r="A57" s="3">
         <v>0.57291666666666696</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E57" s="1" t="s">
         <v>11</v>
       </c>
@@ -1799,6 +1859,9 @@
       <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E58" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G58" s="1" t="s">
         <v>17</v>
       </c>
@@ -1813,6 +1876,9 @@
       <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E59" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G59" s="1" t="s">
         <v>17</v>
       </c>
@@ -1827,6 +1893,9 @@
       <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E60" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G60" s="1" t="s">
         <v>17</v>
       </c>
@@ -1840,6 +1909,9 @@
       </c>
       <c r="B61" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>17</v>
@@ -2664,7 +2736,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/server/src/main/resources/inputs/t1.xlsx
+++ b/server/src/main/resources/inputs/t1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/repo/meeting-scheduler/server/src/main/resources/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7EB420-AAA8-BE46-9EB5-A07527BC068B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4215D1-E779-9742-BA62-15E5B395B5F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="460" windowWidth="16460" windowHeight="26440" xr2:uid="{B79D25B7-5550-B540-A36A-E2C0BE443EC4}"/>
   </bookViews>
@@ -146,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +171,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -184,13 +190,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,8 +515,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="118" workbookViewId="0">
+      <selection activeCell="H97" sqref="B74:H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,25 +551,25 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -570,25 +577,25 @@
       <c r="A3" s="3">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -596,25 +603,25 @@
       <c r="A4" s="3">
         <v>2.0833333333333301E-2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -622,25 +629,25 @@
       <c r="A5" s="3">
         <v>3.125E-2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -648,25 +655,25 @@
       <c r="A6" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -674,25 +681,25 @@
       <c r="A7" s="3">
         <v>5.2083333333333301E-2</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -700,25 +707,25 @@
       <c r="A8" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -726,25 +733,25 @@
       <c r="A9" s="3">
         <v>7.2916666666666699E-2</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -752,25 +759,25 @@
       <c r="A10" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -778,25 +785,25 @@
       <c r="A11" s="3">
         <v>9.375E-2</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -804,25 +811,25 @@
       <c r="A12" s="3">
         <v>0.104166666666667</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -830,25 +837,25 @@
       <c r="A13" s="3">
         <v>0.114583333333333</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -856,25 +863,25 @@
       <c r="A14" s="3">
         <v>0.125</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -882,25 +889,25 @@
       <c r="A15" s="3">
         <v>0.13541666666666699</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -908,25 +915,25 @@
       <c r="A16" s="3">
         <v>0.14583333333333301</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -934,25 +941,25 @@
       <c r="A17" s="3">
         <v>0.15625</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -960,25 +967,25 @@
       <c r="A18" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -986,25 +993,25 @@
       <c r="A19" s="3">
         <v>0.17708333333333301</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1012,25 +1019,25 @@
       <c r="A20" s="3">
         <v>0.1875</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1038,25 +1045,25 @@
       <c r="A21" s="3">
         <v>0.19791666666666699</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1064,25 +1071,25 @@
       <c r="A22" s="3">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1090,25 +1097,25 @@
       <c r="A23" s="3">
         <v>0.21875</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1116,25 +1123,25 @@
       <c r="A24" s="3">
         <v>0.22916666666666699</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1142,25 +1149,25 @@
       <c r="A25" s="3">
         <v>0.23958333333333301</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="B25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1168,25 +1175,25 @@
       <c r="A26" s="3">
         <v>0.25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="B26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1194,25 +1201,25 @@
       <c r="A27" s="3">
         <v>0.26041666666666702</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="B27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1220,25 +1227,25 @@
       <c r="A28" s="3">
         <v>0.27083333333333298</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1246,25 +1253,25 @@
       <c r="A29" s="3">
         <v>0.28125</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="B29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1272,25 +1279,25 @@
       <c r="A30" s="3">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="B30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1298,25 +1305,25 @@
       <c r="A31" s="3">
         <v>0.30208333333333298</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1324,25 +1331,25 @@
       <c r="A32" s="3">
         <v>0.3125</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="B32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1350,25 +1357,25 @@
       <c r="A33" s="3">
         <v>0.32291666666666702</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="B33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1382,10 +1389,10 @@
       <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1399,10 +1406,10 @@
       <c r="E35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1416,10 +1423,10 @@
       <c r="E36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1433,10 +1440,10 @@
       <c r="E37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="G37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1456,10 +1463,10 @@
       <c r="E38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1479,10 +1486,10 @@
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="G39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1502,10 +1509,10 @@
       <c r="E40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="G40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1525,10 +1532,10 @@
       <c r="E41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="G41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1545,10 +1552,10 @@
       <c r="E42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="G42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1565,10 +1572,10 @@
       <c r="E43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1585,10 +1592,10 @@
       <c r="E44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1605,10 +1612,10 @@
       <c r="E45" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="G45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1625,10 +1632,10 @@
       <c r="E46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="G46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1645,10 +1652,10 @@
       <c r="E47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="G47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1665,10 +1672,10 @@
       <c r="E48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1685,10 +1692,10 @@
       <c r="E49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="G49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1708,10 +1715,10 @@
       <c r="E50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="G50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1731,10 +1738,10 @@
       <c r="E51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="G51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1754,10 +1761,10 @@
       <c r="E52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="G52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1777,10 +1784,10 @@
       <c r="E53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="G53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1794,10 +1801,10 @@
       <c r="E54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="G54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1811,10 +1818,10 @@
       <c r="E55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="G55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1828,10 +1835,10 @@
       <c r="E56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="G56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1845,10 +1852,10 @@
       <c r="E57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="1" t="s">
+      <c r="G57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1862,10 +1869,10 @@
       <c r="E58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="G58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1879,10 +1886,10 @@
       <c r="E59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="1" t="s">
+      <c r="G59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1896,10 +1903,10 @@
       <c r="E60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="G60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1913,10 +1920,10 @@
       <c r="E61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="1" t="s">
+      <c r="G61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1930,10 +1937,10 @@
       <c r="E62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="1" t="s">
+      <c r="G62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1947,10 +1954,10 @@
       <c r="E63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="1" t="s">
+      <c r="G63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1964,10 +1971,10 @@
       <c r="E64" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="1" t="s">
+      <c r="G64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1981,10 +1988,10 @@
       <c r="E65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="G65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1998,10 +2005,10 @@
       <c r="E66" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="1" t="s">
+      <c r="G66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2015,10 +2022,10 @@
       <c r="E67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="1" t="s">
+      <c r="G67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2032,10 +2039,10 @@
       <c r="E68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" s="1" t="s">
+      <c r="G68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2049,10 +2056,10 @@
       <c r="E69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="1" t="s">
+      <c r="G69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2060,10 +2067,10 @@
       <c r="A70" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" s="1" t="s">
+      <c r="G70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2071,10 +2078,10 @@
       <c r="A71" s="3">
         <v>0.71875</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="1" t="s">
+      <c r="G71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2082,10 +2089,10 @@
       <c r="A72" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="1" t="s">
+      <c r="G72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2093,10 +2100,10 @@
       <c r="A73" s="3">
         <v>0.73958333333333304</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="1" t="s">
+      <c r="G73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2104,25 +2111,25 @@
       <c r="A74" s="3">
         <v>0.75</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="1" t="s">
+      <c r="B74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2130,25 +2137,25 @@
       <c r="A75" s="3">
         <v>0.76041666666666696</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="1" t="s">
+      <c r="B75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2156,25 +2163,25 @@
       <c r="A76" s="3">
         <v>0.77083333333333304</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="1" t="s">
+      <c r="B76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2182,25 +2189,25 @@
       <c r="A77" s="3">
         <v>0.78125</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="1" t="s">
+      <c r="B77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2208,25 +2215,25 @@
       <c r="A78" s="3">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="1" t="s">
+      <c r="B78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2234,25 +2241,25 @@
       <c r="A79" s="3">
         <v>0.80208333333333304</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="1" t="s">
+      <c r="B79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2260,25 +2267,25 @@
       <c r="A80" s="3">
         <v>0.8125</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="1" t="s">
+      <c r="B80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2286,25 +2293,25 @@
       <c r="A81" s="3">
         <v>0.82291666666666696</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="1" t="s">
+      <c r="B81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2312,25 +2319,25 @@
       <c r="A82" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="1" t="s">
+      <c r="B82" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2338,25 +2345,25 @@
       <c r="A83" s="3">
         <v>0.84375</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="1" t="s">
+      <c r="B83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2364,25 +2371,25 @@
       <c r="A84" s="3">
         <v>0.85416666666666696</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="1" t="s">
+      <c r="B84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2390,25 +2397,25 @@
       <c r="A85" s="3">
         <v>0.86458333333333304</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="1" t="s">
+      <c r="B85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2416,25 +2423,25 @@
       <c r="A86" s="3">
         <v>0.875</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="1" t="s">
+      <c r="B86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2442,25 +2449,25 @@
       <c r="A87" s="3">
         <v>0.88541666666666696</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="1" t="s">
+      <c r="B87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2468,25 +2475,25 @@
       <c r="A88" s="3">
         <v>0.89583333333333304</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" s="1" t="s">
+      <c r="B88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2494,25 +2501,25 @@
       <c r="A89" s="3">
         <v>0.90625</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="1" t="s">
+      <c r="B89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2520,25 +2527,25 @@
       <c r="A90" s="3">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" s="1" t="s">
+      <c r="B90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2546,25 +2553,25 @@
       <c r="A91" s="3">
         <v>0.92708333333333304</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" s="1" t="s">
+      <c r="B91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2572,25 +2579,25 @@
       <c r="A92" s="3">
         <v>0.9375</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" s="1" t="s">
+      <c r="B92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2598,25 +2605,25 @@
       <c r="A93" s="3">
         <v>0.94791666666666696</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" s="1" t="s">
+      <c r="B93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2624,25 +2631,25 @@
       <c r="A94" s="3">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" s="1" t="s">
+      <c r="B94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2650,25 +2657,25 @@
       <c r="A95" s="3">
         <v>0.96875</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" s="1" t="s">
+      <c r="B95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2676,25 +2683,25 @@
       <c r="A96" s="3">
         <v>0.97916666666666696</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H96" s="1" t="s">
+      <c r="B96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2702,25 +2709,25 @@
       <c r="A97" s="3">
         <v>0.98958333333333304</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H97" s="1" t="s">
+      <c r="B97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="6" t="s">
         <v>17</v>
       </c>
     </row>

--- a/server/src/main/resources/inputs/t1.xlsx
+++ b/server/src/main/resources/inputs/t1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/repo/meeting-scheduler/server/src/main/resources/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4215D1-E779-9742-BA62-15E5B395B5F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12479E1-06FD-2A40-98EF-B11F929B1784}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="16460" windowHeight="26440" xr2:uid="{B79D25B7-5550-B540-A36A-E2C0BE443EC4}"/>
+    <workbookView xWindow="29060" yWindow="740" windowWidth="20520" windowHeight="26440" activeTab="1" xr2:uid="{B79D25B7-5550-B540-A36A-E2C0BE443EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>p1</t>
-  </si>
-  <si>
     <t>Wednesday 1.30 PM</t>
   </si>
   <si>
@@ -103,25 +100,28 @@
     <t>Mon 13:30</t>
   </si>
   <si>
-    <t>15/11/2021</t>
+    <t>29/11/2021</t>
   </si>
   <si>
-    <t>16/11/2021</t>
+    <t>30/11/2021</t>
   </si>
   <si>
-    <t>17/11/2021</t>
+    <t>1/12/2021</t>
   </si>
   <si>
-    <t>18/11/2021</t>
+    <t>2/12/2021</t>
   </si>
   <si>
-    <t>19/11/2021</t>
+    <t>3/12/2021</t>
   </si>
   <si>
-    <t>20/11/2021</t>
+    <t>4/12/2021</t>
   </si>
   <si>
-    <t>21/11/2021</t>
+    <t>5/12/2021</t>
+  </si>
+  <si>
+    <t>Finn</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="118" workbookViewId="0">
-      <selection activeCell="H97" sqref="B74:H97"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,25 +526,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2743,8 +2743,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2778,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2786,7 +2786,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2794,7 +2794,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
